--- a/Reference blocks sizes/calculations.xlsx
+++ b/Reference blocks sizes/calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longw\Desktop\G Drive\Praca inżynierska\Engineering_Thesis\Reference blocks sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD92DC2-CE5D-47B3-BB92-E544530A3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD012599-15AE-4E1E-9E95-170016D3525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{F4482E35-1A6B-4091-9B27-4183D7FE2732}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reference blocks sizes/calculations.xlsx
+++ b/Reference blocks sizes/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longw\Desktop\G Drive\Praca inżynierska\Engineering_Thesis\Reference blocks sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD012599-15AE-4E1E-9E95-170016D3525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F43A2F-00F8-42F6-BA6B-0787FD495E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{F4482E35-1A6B-4091-9B27-4183D7FE2732}"/>
+    <workbookView xWindow="1350" yWindow="390" windowWidth="20880" windowHeight="11835" xr2:uid="{F4482E35-1A6B-4091-9B27-4183D7FE2732}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Image resolution</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t>Disk size (bytes)</t>
   </si>
+  <si>
+    <t>Amount of images needed</t>
+  </si>
 </sst>
 </file>
 
@@ -71,12 +74,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,18 +139,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,37 +475,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6D23A6-1E74-450A-B390-1AEBF264AFC3}">
-  <dimension ref="A3:J12"/>
+  <dimension ref="A3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -475,14 +518,14 @@
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="4">
         <v>3840</v>
       </c>
@@ -495,14 +538,14 @@
       <c r="F5" s="4">
         <v>1280</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4">
         <v>2160</v>
       </c>
@@ -515,14 +558,14 @@
       <c r="F6" s="4">
         <v>720</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="4">
         <f>C5*C6</f>
         <v>8294400</v>
@@ -539,225 +582,234 @@
         <f t="shared" si="0"/>
         <v>921600</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>800</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>256</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <f>C$7/($B8^2)</f>
         <v>126.5625</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:F12" si="1">D$7/($B8^2)</f>
         <v>56.25</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>31.640625</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>14.0625</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="10">
         <f>$A8*(UPPER(C8))/1000</f>
         <v>101.25</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <f t="shared" ref="H8:J12" si="2">$A8*(UPPER(D8))/1000</f>
         <v>45</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
         <v>25.3125</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="10">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>450</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>128</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <f t="shared" ref="C9:C12" si="3">C$7/($B9^2)</f>
         <v>506.25</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>126.5625</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <f t="shared" ref="G9:G12" si="4">$A9*(UPPER(C9))/1000</f>
         <v>227.8125</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
         <v>101.25</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
         <v>56.953125</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="10">
         <f t="shared" si="2"/>
         <v>25.3125</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>230</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>64</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <f t="shared" si="3"/>
         <v>2025</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>506.25</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="10">
         <f t="shared" si="4"/>
         <v>465.75</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>116.4375</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>51.75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>160</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>32</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f t="shared" si="3"/>
         <v>8100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <f t="shared" si="4"/>
         <v>1296</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>140</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <f t="shared" si="3"/>
         <v>32400</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <f t="shared" si="4"/>
         <v>4536</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>1134</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="G3:J6"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
